--- a/BalanceSheet/CNC_bal.xlsx
+++ b/BalanceSheet/CNC_bal.xlsx
@@ -4221,7 +4221,7 @@
         <v>7379000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1362000000.0</v>
+        <v>740000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>22000000.0</v>
@@ -4348,7 +4348,7 @@
         <v>18073000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>14348000000.0</v>
+        <v>13726000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>7041000000.0</v>
